--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-6694184095798346213" xfId="1" hidden="0"/>
-    <cellStyle name="-5292336233671759821" xfId="2" hidden="0"/>
+    <cellStyle name="5897753757051097329" xfId="1" hidden="0"/>
+    <cellStyle name="-7817928977278746789" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -818,7 +818,7 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>IMAGING_DATASET</t>
+          <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>IMAGING_DATASET</t>
+          <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -1604,8 +1604,16 @@
           <t>LOT number as provided by manufacturer</t>
         </is>
       </c>
-      <c r="BL2" s="2" t="inlineStr"/>
-      <c r="BM2" s="2" t="inlineStr"/>
+      <c r="BL2" s="2" t="inlineStr">
+        <is>
+          <t>ID/Label of the individual as referenced to in external database</t>
+        </is>
+      </c>
+      <c r="BM2" s="2" t="inlineStr">
+        <is>
+          <t>Label of the external mouse database e.g. MoVi / CRUK-CI</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -1823,8 +1831,16 @@
       <c r="BI3" s="2" t="inlineStr"/>
       <c r="BJ3" s="2" t="inlineStr"/>
       <c r="BK3" s="2" t="inlineStr"/>
-      <c r="BL3" s="2" t="inlineStr"/>
-      <c r="BM3" s="2" t="inlineStr"/>
+      <c r="BL3" s="2" t="inlineStr">
+        <is>
+          <t>[12345]</t>
+        </is>
+      </c>
+      <c r="BM3" s="2" t="inlineStr">
+        <is>
+          <t>['MoVi, CRUK-CI']</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -2126,8 +2142,16 @@
           <t>Odomlab</t>
         </is>
       </c>
-      <c r="BL4" s="2" t="inlineStr"/>
-      <c r="BM4" s="2" t="inlineStr"/>
+      <c r="BL4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
+      <c r="BM4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -2437,8 +2461,16 @@
           <t>other</t>
         </is>
       </c>
-      <c r="BL5" s="2" t="inlineStr"/>
-      <c r="BM5" s="2" t="inlineStr"/>
+      <c r="BL5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="BM5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" s="2" t="inlineStr"/>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="5897753757051097329" xfId="1" hidden="0"/>
-    <cellStyle name="-7817928977278746789" xfId="2" hidden="0"/>
+    <cellStyle name="2037184015289833625" xfId="1" hidden="0"/>
+    <cellStyle name="6508422940602682099" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1346,134 +1346,134 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
+          <t>Location of the library/experiement description</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Plate label used</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Column in the plate</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Row in the plate</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>REQUIRED FOR SMARTSEQ2, combination of column and row</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Researchers Working ID for a sample</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Identifier for the strain used. Use EFO, if possible</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>Biological sex of the sampled individual.</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Birthday of individual (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Date of death (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>How was the mouse/animal killed?</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Genome used for QC at GPCF</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Brief description to method of tissue preparation</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>DNA/RNA concentration measured by Qubit [ng/ul]</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>Number of cell (if available) [TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Mass of input RNA/DNA</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>Volume of input RNA/DNA</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="AI2" s="2" t="inlineStr">
+        <is>
+          <t>Sequence of the I7 barcode (for 10x-singcell this can be a comma-separated list of 4 indeces)</t>
+        </is>
+      </c>
+      <c r="AJ2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="AK2" s="2" t="inlineStr">
+        <is>
           <t>another description</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>another description</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Column in the plate</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Row in the plate</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>REQUIRED FOR SMARTSEQ2, combination of column and row</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Researchers Working ID for a sample</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Identifier for the strain used. Use EFO, if possible</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>another description</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>Biological sex of the sampled individual.</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>Birthday of individual (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Date of death (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>another description</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>Genome used for QC at GPCF</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>Brief description to method of tissue preparation</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>DNA/RNA concentration measured by Qubit [ng/ul]</t>
-        </is>
-      </c>
-      <c r="AD2" s="2" t="inlineStr">
-        <is>
-          <t>Number of cell (if available) [TOTAL_ALIVE CELLS]</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
-        </is>
-      </c>
-      <c r="AF2" s="2" t="inlineStr">
-        <is>
-          <t>Mass of input RNA/DNA</t>
-        </is>
-      </c>
-      <c r="AG2" s="2" t="inlineStr">
-        <is>
-          <t>Volume of input RNA/DNA</t>
-        </is>
-      </c>
-      <c r="AH2" s="2" t="inlineStr">
-        <is>
-          <t>another description</t>
-        </is>
-      </c>
-      <c r="AI2" s="2" t="inlineStr">
-        <is>
-          <t>Sequence of the I7 barcode (for 10x-singcell this can be a comma-separated list of 4 indeces)</t>
-        </is>
-      </c>
-      <c r="AJ2" s="2" t="inlineStr">
-        <is>
-          <t>another description</t>
-        </is>
-      </c>
-      <c r="AK2" s="2" t="inlineStr">
-        <is>
-          <t>another description</t>
-        </is>
-      </c>
       <c r="AL2" s="2" t="inlineStr">
         <is>
           <t>Description of barcode used</t>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="AO2" s="2" t="inlineStr">
         <is>
-          <t>another description</t>
+          <t>Nucleic acid concentration</t>
         </is>
       </c>
       <c r="AP2" s="2" t="inlineStr">
         <is>
-          <t>another description</t>
+          <t>Library molarity</t>
         </is>
       </c>
       <c r="AQ2" s="2" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AR2" s="2" t="inlineStr">
         <is>
-          <t>Average fragment length (basepairs=</t>
+          <t>Average fragment length (basepairs)</t>
         </is>
       </c>
       <c r="AS2" s="2" t="inlineStr">
@@ -2511,8 +2511,16 @@
       <c r="T6" s="2" t="inlineStr"/>
       <c r="U6" s="2" t="inlineStr"/>
       <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr"/>
-      <c r="X6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
@@ -2574,7 +2582,11 @@
           <t>[0-9]{5,}</t>
         </is>
       </c>
-      <c r="AT6" s="2" t="inlineStr"/>
+      <c r="AT6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="AU6" s="2" t="inlineStr"/>
       <c r="AV6" s="2" t="inlineStr">
         <is>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="2037184015289833625" xfId="1" hidden="0"/>
-    <cellStyle name="6508422940602682099" xfId="2" hidden="0"/>
+    <cellStyle name="-6621635969532944098" xfId="1" hidden="0"/>
+    <cellStyle name="-9155632062852084468" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="AK2" s="2" t="inlineStr">
         <is>
-          <t>another description</t>
+          <t>Sequence of the I5 barcode</t>
         </is>
       </c>
       <c r="AL2" s="2" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="AI4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>Odomlab, ILSe</t>
         </is>
       </c>
       <c r="AJ4" s="2" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AK4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>Odomlab, ILSe</t>
         </is>
       </c>
       <c r="AL4" s="2" t="inlineStr">

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-6621635969532944098" xfId="1" hidden="0"/>
-    <cellStyle name="-9155632062852084468" xfId="2" hidden="0"/>
+    <cellStyle name="-4331516123719240021" xfId="1" hidden="0"/>
+    <cellStyle name="-9040223131899432966" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-4331516123719240021" xfId="1" hidden="0"/>
-    <cellStyle name="-9040223131899432966" xfId="2" hidden="0"/>
+    <cellStyle name="1507150893512826801" xfId="1" hidden="0"/>
+    <cellStyle name="-3843049994844073808" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:BK1"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,8 +551,6 @@
     <col width="20" customWidth="1" min="61" max="61"/>
     <col width="20" customWidth="1" min="62" max="62"/>
     <col width="20" customWidth="1" min="63" max="63"/>
-    <col width="20" customWidth="1" min="64" max="64"/>
-    <col width="20" customWidth="1" min="65" max="65"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -583,300 +581,290 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_I7</t>
+          <t>MULTIPLEX_NAME</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_I5</t>
+          <t>PHENOTYPE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MULTIPLEX_NAME</t>
+          <t>GENOTYPE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PHENOTYPE</t>
+          <t>LIBRARY_TYPE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GENOTYPE</t>
+          <t>EXPER_LOCATION</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARY_TYPE</t>
+          <t>PLATE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>EXPER_LOCATION</t>
+          <t>WELL_COLUMN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>PLATE</t>
+          <t>WELL_ROW</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>WELL_COLUMN</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>WELL_ROW</t>
+          <t>WORKING_ID</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>STRAIN</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>WORKING_ID</t>
+          <t>INDIVIDUAL</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>STRAIN</t>
+          <t>TREATMENT</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TREATMENT</t>
+          <t>TISSUE</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>TISSUE</t>
+          <t>DATE_OF_DEATH</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>DATE_OF_BIRTH</t>
+          <t>WAY_OF_DEATH</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>DATE_OF_DEATH</t>
+          <t>GENOME</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>WAY_OF_DEATH</t>
+          <t>TISSUE_PREP_METHOD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>GENOME</t>
+          <t>NA_PREP_METHOD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>TISSUE_PREP_METHOD</t>
+          <t>QUBIT_NA_CONC[ng/ul]</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>NA_PREP_METHOD</t>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>QUBIT_NA_CONC[ng/ul]</t>
+          <t>LIB_PREP_KIT</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+          <t>NA_INPUT_QUANTITY [ng]</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>LIB_PREP_KIT</t>
+          <t>NA_INPUT_QUANTITY [ul]</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>NA_INPUT_QUANTITY [ng]</t>
+          <t>BARCODE_WELL_I7</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>NA_INPUT_QUANTITY [ul]</t>
+          <t>BARCODE_SEQ_I7</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_WELL_I7</t>
+          <t>BARCODE_WELL_I5</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_SEQ_I7</t>
+          <t>BARCODE_SEQ_I5</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_WELL_I5</t>
+          <t>BARCODETYPE</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_SEQ_I5</t>
+          <t>PCR_CYCLES_FIRST_AMP</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>BARCODETYPE</t>
+          <t>PCR_CYCLES_SECOND_AMP</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>PCR_CYCLES_FIRST_AMP</t>
+          <t>LIBRARY_CONC[ng/ul]</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>PCR_CYCLES_SECOND_AMP</t>
+          <t>LIBRARY_MOLARITY[nmol]</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARY_CONC[ng/ul]</t>
+          <t>DNA_FRAGMENTATION_METHOD</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARY_MOLARITY[nmol]</t>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
+          <t>ILSE_NO</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
+          <t>DATE_OF_SUBM</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>ILSE_NO</t>
+          <t>SEQUENCER</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>DATE_OF_SUBM</t>
+          <t>MULTIPLEX</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>SEQUENCER</t>
+          <t>LANES_TOTAL</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>MULTIPLEX</t>
+          <t>ANTIBODY_TARGET</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>LANES_TOTAL</t>
+          <t>ANTIBODY</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>ANTIBODY_TARGET</t>
+          <t>ANTIBODY_LOT</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>ANTIBODY</t>
+          <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>ANTIBODY_LOT</t>
+          <t>NOTES</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>IMAGING_DATASET_ID</t>
+          <t>AMPURE_LOT</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>NOTES</t>
+          <t>DYNABEADS_LOT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>AMPURE_LOT</t>
+          <t>QUIBIT_LOT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>DYNABEADS_LOT</t>
+          <t>CLARIOSTAR_LOT</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>QUIBIT_LOT</t>
+          <t>NA_PREP_LOT</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>CLARIOSTAR_LOT</t>
+          <t>ENZYM_FRAG_LOT</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>NA_PREP_LOT</t>
+          <t>LIBRARYPREP_KIT_LOT</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>ENZYM_FRAG_LOT</t>
+          <t>INDEXPRIMER_LOT</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARYPREP_KIT_LOT</t>
+          <t>CAPTURE_PROBES_LOT</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>INDEXPRIMER_LOT</t>
+          <t>INDIVIDUAL_REF_ID</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>CAPTURE_PROBES_LOT</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL_REF_ID</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>INDIVIDUAL_REF_DB</t>
         </is>
@@ -893,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -965,8 +953,6 @@
     <col width="20" customWidth="1" min="61" max="61"/>
     <col width="20" customWidth="1" min="62" max="62"/>
     <col width="20" customWidth="1" min="63" max="63"/>
-    <col width="20" customWidth="1" min="64" max="64"/>
-    <col width="20" customWidth="1" min="65" max="65"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -997,300 +983,290 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_I7</t>
+          <t>MULTIPLEX_NAME</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_I5</t>
+          <t>PHENOTYPE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MULTIPLEX_NAME</t>
+          <t>GENOTYPE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PHENOTYPE</t>
+          <t>LIBRARY_TYPE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GENOTYPE</t>
+          <t>EXPER_LOCATION</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARY_TYPE</t>
+          <t>PLATE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>EXPER_LOCATION</t>
+          <t>WELL_COLUMN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>PLATE</t>
+          <t>WELL_ROW</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>WELL_COLUMN</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>WELL_ROW</t>
+          <t>WORKING_ID</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>STRAIN</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>WORKING_ID</t>
+          <t>INDIVIDUAL</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>STRAIN</t>
+          <t>TREATMENT</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TREATMENT</t>
+          <t>TISSUE</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>TISSUE</t>
+          <t>DATE_OF_DEATH</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>DATE_OF_BIRTH</t>
+          <t>WAY_OF_DEATH</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>DATE_OF_DEATH</t>
+          <t>GENOME</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>WAY_OF_DEATH</t>
+          <t>TISSUE_PREP_METHOD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>GENOME</t>
+          <t>NA_PREP_METHOD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>TISSUE_PREP_METHOD</t>
+          <t>QUBIT_NA_CONC[ng/ul]</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>NA_PREP_METHOD</t>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>QUBIT_NA_CONC[ng/ul]</t>
+          <t>LIB_PREP_KIT</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+          <t>NA_INPUT_QUANTITY [ng]</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>LIB_PREP_KIT</t>
+          <t>NA_INPUT_QUANTITY [ul]</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>NA_INPUT_QUANTITY [ng]</t>
+          <t>BARCODE_WELL_I7</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>NA_INPUT_QUANTITY [ul]</t>
+          <t>BARCODE_SEQ_I7</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_WELL_I7</t>
+          <t>BARCODE_WELL_I5</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_SEQ_I7</t>
+          <t>BARCODE_SEQ_I5</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_WELL_I5</t>
+          <t>BARCODETYPE</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>BARCODE_SEQ_I5</t>
+          <t>PCR_CYCLES_FIRST_AMP</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>BARCODETYPE</t>
+          <t>PCR_CYCLES_SECOND_AMP</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>PCR_CYCLES_FIRST_AMP</t>
+          <t>LIBRARY_CONC[ng/ul]</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>PCR_CYCLES_SECOND_AMP</t>
+          <t>LIBRARY_MOLARITY[nmol]</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARY_CONC[ng/ul]</t>
+          <t>DNA_FRAGMENTATION_METHOD</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARY_MOLARITY[nmol]</t>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
+          <t>ILSE_NO</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
+          <t>DATE_OF_SUBM</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>ILSE_NO</t>
+          <t>SEQUENCER</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>DATE_OF_SUBM</t>
+          <t>MULTIPLEX</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>SEQUENCER</t>
+          <t>LANES_TOTAL</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>MULTIPLEX</t>
+          <t>ANTIBODY_TARGET</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>LANES_TOTAL</t>
+          <t>ANTIBODY</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>ANTIBODY_TARGET</t>
+          <t>ANTIBODY_LOT</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>ANTIBODY</t>
+          <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>ANTIBODY_LOT</t>
+          <t>NOTES</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>IMAGING_DATASET_ID</t>
+          <t>AMPURE_LOT</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>NOTES</t>
+          <t>DYNABEADS_LOT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>AMPURE_LOT</t>
+          <t>QUIBIT_LOT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>DYNABEADS_LOT</t>
+          <t>CLARIOSTAR_LOT</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>QUIBIT_LOT</t>
+          <t>NA_PREP_LOT</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>CLARIOSTAR_LOT</t>
+          <t>ENZYM_FRAG_LOT</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>NA_PREP_LOT</t>
+          <t>LIBRARYPREP_KIT_LOT</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>ENZYM_FRAG_LOT</t>
+          <t>INDEXPRIMER_LOT</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>LIBRARYPREP_KIT_LOT</t>
+          <t>CAPTURE_PROBES_LOT</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>INDEXPRIMER_LOT</t>
+          <t>INDIVIDUAL_REF_ID</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>CAPTURE_PROBES_LOT</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL_REF_ID</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>INDIVIDUAL_REF_DB</t>
         </is>
@@ -1322,136 +1298,144 @@
           <t>Sample Type used by OTP, describing samples *across* individual, please follow guidelines</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Your initials followed by the date of submission format(ABYYYYMMDD)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Description of the phenotype</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Your initials followed by the date of submission format(ABYYYYMMDD)</t>
+          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Description of the phenotype</t>
+          <t>Type of library and how it was generated.</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
+          <t>Location of the library/experiement description</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Type of library and how it was generated.</t>
+          <t>Plate label used</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>Location of the library/experiement description</t>
+          <t>Column in the plate</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>Plate label used</t>
+          <t>Row in the plate</t>
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>Column in the plate</t>
+          <t>REQUIRED FOR SMARTSEQ2, combination of column and row</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>Row in the plate</t>
+          <t>Researchers Working ID for a sample</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>REQUIRED FOR SMARTSEQ2, combination of column and row</t>
+          <t>Identifier for the strain used. Use EFO, if possible</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>Researchers Working ID for a sample</t>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Identifier for the strain used. Use EFO, if possible</t>
+          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
         </is>
       </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+          <t>Biological sex of the sampled individual.</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>Biological sex of the sampled individual.</t>
+          <t>Birthday of individual (format YYYY-MM-DD)</t>
         </is>
       </c>
       <c r="V2" s="2" t="inlineStr">
         <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+          <t>Date of death (format YYYY-MM-DD)</t>
         </is>
       </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>Birthday of individual (format YYYY-MM-DD)</t>
+          <t>How was the mouse/animal killed?</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
         <is>
-          <t>Date of death (format YYYY-MM-DD)</t>
+          <t>Genome used for QC at GPCF</t>
         </is>
       </c>
       <c r="Y2" s="2" t="inlineStr">
         <is>
-          <t>How was the mouse/animal killed?</t>
+          <t>Brief description to method of tissue preparation</t>
         </is>
       </c>
       <c r="Z2" s="2" t="inlineStr">
         <is>
-          <t>Genome used for QC at GPCF</t>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
         </is>
       </c>
       <c r="AA2" s="2" t="inlineStr">
         <is>
-          <t>Brief description to method of tissue preparation</t>
+          <t>DNA/RNA concentration measured by Qubit [ng/ul]</t>
         </is>
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+          <t>Number of cell (if available) [TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
       <c r="AC2" s="2" t="inlineStr">
         <is>
-          <t>DNA/RNA concentration measured by Qubit [ng/ul]</t>
+          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
         </is>
       </c>
       <c r="AD2" s="2" t="inlineStr">
         <is>
-          <t>Number of cell (if available) [TOTAL_ALIVE CELLS]</t>
+          <t>Mass of input RNA/DNA</t>
         </is>
       </c>
       <c r="AE2" s="2" t="inlineStr">
         <is>
-          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
+          <t>Volume of input RNA/DNA</t>
         </is>
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>Mass of input RNA/DNA</t>
+          <t>Well position of the barcode</t>
         </is>
       </c>
       <c r="AG2" s="2" t="inlineStr">
         <is>
-          <t>Volume of input RNA/DNA</t>
+          <t>Sequence of the I7 barcode (for 10x-singcell this can be a comma-separated list of 4 indeces)</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
@@ -1461,102 +1445,102 @@
       </c>
       <c r="AI2" s="2" t="inlineStr">
         <is>
-          <t>Sequence of the I7 barcode (for 10x-singcell this can be a comma-separated list of 4 indeces)</t>
+          <t>Sequence of the I5 barcode</t>
         </is>
       </c>
       <c r="AJ2" s="2" t="inlineStr">
         <is>
-          <t>Well position of the barcode</t>
+          <t>Description of barcode used</t>
         </is>
       </c>
       <c r="AK2" s="2" t="inlineStr">
         <is>
-          <t>Sequence of the I5 barcode</t>
+          <t>Number of PCR cycles in first amplication</t>
         </is>
       </c>
       <c r="AL2" s="2" t="inlineStr">
         <is>
-          <t>Description of barcode used</t>
+          <t>Number of PCR cycles in second amplication</t>
         </is>
       </c>
       <c r="AM2" s="2" t="inlineStr">
         <is>
-          <t>Number of PCR cycles in first amplication</t>
+          <t>Nucleic acid concentration</t>
         </is>
       </c>
       <c r="AN2" s="2" t="inlineStr">
         <is>
-          <t>Number of PCR cycles in second amplication</t>
+          <t>Library molarity</t>
         </is>
       </c>
       <c r="AO2" s="2" t="inlineStr">
         <is>
-          <t>Nucleic acid concentration</t>
+          <t>Method used to fragment DNA</t>
         </is>
       </c>
       <c r="AP2" s="2" t="inlineStr">
         <is>
-          <t>Library molarity</t>
+          <t>Average fragment length (basepairs)</t>
         </is>
       </c>
       <c r="AQ2" s="2" t="inlineStr">
         <is>
-          <t>Method used to fragment DNA</t>
+          <t>ILSE number as provided by GPCF/ILSe</t>
         </is>
       </c>
       <c r="AR2" s="2" t="inlineStr">
         <is>
-          <t>Average fragment length (basepairs)</t>
+          <t>When was the sample submitted for sequencing? (format YYYY-MM-DD)</t>
         </is>
       </c>
       <c r="AS2" s="2" t="inlineStr">
         <is>
-          <t>ILSE number as provided by GPCF/ILSe</t>
+          <t>Free-txt description of sequencing platforms, read-length and run-type (for your information and submission to the sequencing center)</t>
         </is>
       </c>
       <c r="AT2" s="2" t="inlineStr">
         <is>
-          <t>When was the sample submitted for sequencing? (format YYYY-MM-DD)</t>
+          <t>Number of samples in Multiplex</t>
         </is>
       </c>
       <c r="AU2" s="2" t="inlineStr">
         <is>
-          <t>Free-txt description of sequencing platforms, read-length and run-type (for your information and submission to the sequencing center)</t>
+          <t>Number of lanes sequenced</t>
         </is>
       </c>
       <c r="AV2" s="2" t="inlineStr">
         <is>
-          <t>Number of samples in Multiplex</t>
+          <t>Antibody target protein</t>
         </is>
       </c>
       <c r="AW2" s="2" t="inlineStr">
         <is>
-          <t>Number of lanes sequenced</t>
+          <t>Antibody name, manufacturer etc.</t>
         </is>
       </c>
       <c r="AX2" s="2" t="inlineStr">
         <is>
-          <t>Antibody target protein</t>
+          <t>LOT number of the antibody</t>
         </is>
       </c>
       <c r="AY2" s="2" t="inlineStr">
         <is>
-          <t>Antibody name, manufacturer etc.</t>
+          <t>Imaging dataset for Spatial Transcriptomics</t>
         </is>
       </c>
       <c r="AZ2" s="2" t="inlineStr">
         <is>
-          <t>LOT number of the antibody</t>
+          <t>Any additional notes, comments for the submission</t>
         </is>
       </c>
       <c r="BA2" s="2" t="inlineStr">
         <is>
-          <t>Imaging dataset for Spatial Transcriptomics</t>
+          <t>LOT number as provided by manufacturer</t>
         </is>
       </c>
       <c r="BB2" s="2" t="inlineStr">
         <is>
-          <t>Any additional notes, comments for the submission</t>
+          <t>LOT number as provided by manufacturer</t>
         </is>
       </c>
       <c r="BC2" s="2" t="inlineStr">
@@ -1596,20 +1580,10 @@
       </c>
       <c r="BJ2" s="2" t="inlineStr">
         <is>
-          <t>LOT number as provided by manufacturer</t>
+          <t>ID/Label of the individual as referenced to in external database</t>
         </is>
       </c>
       <c r="BK2" s="2" t="inlineStr">
-        <is>
-          <t>LOT number as provided by manufacturer</t>
-        </is>
-      </c>
-      <c r="BL2" s="2" t="inlineStr">
-        <is>
-          <t>ID/Label of the individual as referenced to in external database</t>
-        </is>
-      </c>
-      <c r="BM2" s="2" t="inlineStr">
         <is>
           <t>Label of the external mouse database e.g. MoVi / CRUK-CI</t>
         </is>
@@ -1641,186 +1615,186 @@
           <t>liver01, liver01-test01</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>MB20190923</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>['healthy', 'tumor']</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>MB20190923</t>
+          <t>wild type</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>['healthy', 'tumor']</t>
+          <t>['WES_SureSelectXTHS WGS RNA_NEBNext_Low_Input scRNA_10x_v3 RNA_SMARTSeq_v4_Ultra_Low_Input scATAC scRNA_10x_nextgem']</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>wild type</t>
+          <t>['MB_folder', 'AT1_15_A1', 'AT1_45_A1']</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>['WES_SureSelectXTHS WGS RNA_NEBNext_Low_Input scRNA_10x_v3 RNA_SMARTSeq_v4_Ultra_Low_Input scATAC scRNA_10x_nextgem']</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>['MB_folder', 'AT1_15_A1', 'AT1_45_A1']</t>
-        </is>
+          <t>['T1 plate 1', 20200130]</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>['T1 plate 1', 20200130]</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>female, male, unknown</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>liver, skin, brain</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>43834</v>
+      </c>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>mm10</t>
+        </is>
+      </c>
+      <c r="Y3" s="2" t="inlineStr">
+        <is>
+          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
+        </is>
+      </c>
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
+        </is>
+      </c>
+      <c r="AA3" s="2" t="inlineStr"/>
+      <c r="AB3" s="2" t="inlineStr"/>
+      <c r="AC3" s="2" t="inlineStr">
+        <is>
+          <t>['scRNA_10x_v3', 'WGS_NEBNext_ULTRA_II', 'Agilent SureSelect Pre-capture', 'Agilent SureSelect XT Low input Mouse AllExon', 'Agilent SureSelect Post-capture', 'NEBNext RNA Low Input - E6420']</t>
+        </is>
+      </c>
+      <c r="AD3" s="2" t="inlineStr"/>
+      <c r="AE3" s="2" t="inlineStr"/>
+      <c r="AF3" s="2" t="inlineStr">
+        <is>
+          <t>A7, S503</t>
+        </is>
+      </c>
+      <c r="AG3" s="2" t="inlineStr">
+        <is>
+          <t>TTACCGAC, GCGAGTAA</t>
+        </is>
+      </c>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>A7, N701, SI-GA-A6</t>
+        </is>
+      </c>
+      <c r="AI3" s="2" t="inlineStr">
+        <is>
+          <t>TTACCGAC, TATCCTCT</t>
+        </is>
+      </c>
+      <c r="AJ3" s="2" t="inlineStr">
+        <is>
+          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+        </is>
+      </c>
+      <c r="AK3" s="2" t="inlineStr"/>
+      <c r="AL3" s="2" t="inlineStr"/>
+      <c r="AM3" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="AO3" s="2" t="inlineStr">
+        <is>
+          <t>['enzymatic sonicator']</t>
+        </is>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="AS3" s="2" t="inlineStr">
+        <is>
+          <t>NextSeq 550 Paired-End 75bp Mid-Output</t>
+        </is>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>female, male, unknown</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>liver, skin, brain</t>
-        </is>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>43921</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>43834</v>
-      </c>
-      <c r="Y3" s="2" t="inlineStr">
-        <is>
-          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
-        </is>
-      </c>
-      <c r="Z3" s="2" t="inlineStr">
-        <is>
-          <t>mm10</t>
-        </is>
-      </c>
-      <c r="AA3" s="2" t="inlineStr">
-        <is>
-          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
-        </is>
-      </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
-        </is>
-      </c>
-      <c r="AC3" s="2" t="inlineStr"/>
-      <c r="AD3" s="2" t="inlineStr"/>
-      <c r="AE3" s="2" t="inlineStr">
-        <is>
-          <t>['scRNA_10x_v3', 'WGS_NEBNext_ULTRA_II', 'Agilent SureSelect Pre-capture', 'Agilent SureSelect XT Low input Mouse AllExon', 'Agilent SureSelect Post-capture', 'NEBNext RNA Low Input - E6420']</t>
-        </is>
-      </c>
-      <c r="AF3" s="2" t="inlineStr"/>
-      <c r="AG3" s="2" t="inlineStr"/>
-      <c r="AH3" s="2" t="inlineStr">
-        <is>
-          <t>A7, S503</t>
-        </is>
-      </c>
-      <c r="AI3" s="2" t="inlineStr">
-        <is>
-          <t>TTACCGAC, GCGAGTAA</t>
-        </is>
-      </c>
-      <c r="AJ3" s="2" t="inlineStr">
-        <is>
-          <t>A7, N701, SI-GA-A6</t>
-        </is>
-      </c>
-      <c r="AK3" s="2" t="inlineStr">
-        <is>
-          <t>TTACCGAC, TATCCTCT</t>
-        </is>
-      </c>
-      <c r="AL3" s="2" t="inlineStr">
-        <is>
-          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
-        </is>
-      </c>
-      <c r="AM3" s="2" t="inlineStr"/>
-      <c r="AN3" s="2" t="inlineStr"/>
-      <c r="AO3" s="2" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>46.94</v>
-      </c>
-      <c r="AQ3" s="2" t="inlineStr">
-        <is>
-          <t>['enzymatic sonicator']</t>
-        </is>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>44135</v>
-      </c>
-      <c r="AU3" s="2" t="inlineStr">
-        <is>
-          <t>NextSeq 550 Paired-End 75bp Mid-Output</t>
-        </is>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="2" t="inlineStr">
+      <c r="AV3" s="2" t="inlineStr">
         <is>
           <t>HNF4A, CEBPA</t>
         </is>
       </c>
-      <c r="AY3" s="2" t="inlineStr"/>
+      <c r="AW3" s="2" t="inlineStr"/>
+      <c r="AX3" s="2" t="inlineStr"/>
+      <c r="AY3" s="2" t="inlineStr">
+        <is>
+          <t>['DOIMG-00001']</t>
+        </is>
+      </c>
       <c r="AZ3" s="2" t="inlineStr"/>
-      <c r="BA3" s="2" t="inlineStr">
-        <is>
-          <t>['DOIMG-00001']</t>
-        </is>
-      </c>
+      <c r="BA3" s="2" t="inlineStr"/>
       <c r="BB3" s="2" t="inlineStr"/>
       <c r="BC3" s="2" t="inlineStr"/>
       <c r="BD3" s="2" t="inlineStr"/>
@@ -1829,14 +1803,12 @@
       <c r="BG3" s="2" t="inlineStr"/>
       <c r="BH3" s="2" t="inlineStr"/>
       <c r="BI3" s="2" t="inlineStr"/>
-      <c r="BJ3" s="2" t="inlineStr"/>
-      <c r="BK3" s="2" t="inlineStr"/>
-      <c r="BL3" s="2" t="inlineStr">
+      <c r="BJ3" s="2" t="inlineStr">
         <is>
           <t>[12345]</t>
         </is>
       </c>
-      <c r="BM3" s="2" t="inlineStr">
+      <c r="BK3" s="2" t="inlineStr">
         <is>
           <t>['MoVi, CRUK-CI']</t>
         </is>
@@ -1868,14 +1840,22 @@
           <t>GUIDE, Odomlab</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Odomlab</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Odomlab</t>
@@ -1923,7 +1903,7 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>ILSe, GUIDE, Odomlab</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -1933,7 +1913,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>ILSe, GUIDE, Odomlab</t>
+          <t>Odomlab</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -1948,7 +1928,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>ILSe</t>
         </is>
       </c>
       <c r="Y4" s="2" t="inlineStr">
@@ -1958,7 +1938,7 @@
       </c>
       <c r="Z4" s="2" t="inlineStr">
         <is>
-          <t>ILSe</t>
+          <t>Odomlab</t>
         </is>
       </c>
       <c r="AA4" s="2" t="inlineStr">
@@ -1973,7 +1953,7 @@
       </c>
       <c r="AC4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>Odomlab, GUIDE, OTP</t>
         </is>
       </c>
       <c r="AD4" s="2" t="inlineStr">
@@ -1983,7 +1963,7 @@
       </c>
       <c r="AE4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab, GUIDE, OTP</t>
+          <t>Odomlab</t>
         </is>
       </c>
       <c r="AF4" s="2" t="inlineStr">
@@ -1993,7 +1973,7 @@
       </c>
       <c r="AG4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>Odomlab, ILSe</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
@@ -2013,7 +1993,7 @@
       </c>
       <c r="AK4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab, ILSe</t>
+          <t>Odomlab</t>
         </is>
       </c>
       <c r="AL4" s="2" t="inlineStr">
@@ -2043,7 +2023,7 @@
       </c>
       <c r="AQ4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab</t>
+          <t>GUIDE, Odomlab</t>
         </is>
       </c>
       <c r="AR4" s="2" t="inlineStr">
@@ -2053,7 +2033,7 @@
       </c>
       <c r="AS4" s="2" t="inlineStr">
         <is>
-          <t>GUIDE, Odomlab</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AT4" s="2" t="inlineStr">
@@ -2063,7 +2043,7 @@
       </c>
       <c r="AU4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Odomlab</t>
         </is>
       </c>
       <c r="AV4" s="2" t="inlineStr">
@@ -2096,17 +2076,17 @@
           <t>Odomlab</t>
         </is>
       </c>
-      <c r="BB4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
+      <c r="BB4" s="2" t="inlineStr"/>
       <c r="BC4" s="2" t="inlineStr">
         <is>
           <t>Odomlab</t>
         </is>
       </c>
-      <c r="BD4" s="2" t="inlineStr"/>
+      <c r="BD4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
       <c r="BE4" s="2" t="inlineStr">
         <is>
           <t>Odomlab</t>
@@ -2138,16 +2118,6 @@
         </is>
       </c>
       <c r="BK4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
-      <c r="BL4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
-      <c r="BM4" s="2" t="inlineStr">
         <is>
           <t>Odomlab</t>
         </is>
@@ -2179,294 +2149,292 @@
           <t>sample</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="Y5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AA5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AG5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AI5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AJ5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AK5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AL5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AM5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AN5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AO5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AP5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AQ5" s="2" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="AR5" s="2" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="AS5" s="2" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="AT5" s="2" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="AU5" s="2" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="AV5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AW5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AX5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AY5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AZ5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="BA5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BB5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BC5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BD5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BE5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BF5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BG5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BH5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BI5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="BJ5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="Y5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AG5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AH5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AI5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AJ5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AK5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AL5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AM5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AN5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AO5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AP5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AQ5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AR5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AS5" s="2" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="AT5" s="2" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="AU5" s="2" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="AV5" s="2" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="AW5" s="2" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="AX5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AY5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AZ5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BA5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="BB5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="BC5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BD5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BE5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BF5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BG5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BH5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BI5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BJ5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
       <c r="BK5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="BL5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="BM5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
@@ -2478,126 +2446,126 @@
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>[A-Z]{2}[0-9]{4}[0-9]{2}[0-9]{2}</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>[A-Z]{2}[0-9]{4}[0-9]{2}[0-9]{2}</t>
-        </is>
-      </c>
+      <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{1,2}</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>[A-Z]</t>
+        </is>
+      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>[0-9]{1,2}</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>[A-Z]</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
           <t>[0-9]{1,2}[A-Z]</t>
         </is>
       </c>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
         </is>
       </c>
-      <c r="X6" s="2" t="inlineStr">
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
         </is>
       </c>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr"/>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
       <c r="AB6" s="2" t="inlineStr"/>
       <c r="AC6" s="2" t="inlineStr"/>
-      <c r="AD6" s="2" t="inlineStr"/>
-      <c r="AE6" s="2" t="inlineStr"/>
-      <c r="AF6" s="2" t="inlineStr">
+      <c r="AD6" s="2" t="inlineStr">
         <is>
           <t>[+-]?([0-9]*[.])?[0-9]+</t>
         </is>
       </c>
+      <c r="AE6" s="2" t="inlineStr">
+        <is>
+          <t>[+-]?([0-9]*[.])?[0-9]+</t>
+        </is>
+      </c>
+      <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr">
         <is>
-          <t>[+-]?([0-9]*[.])?[0-9]+</t>
+          <t>[ATGC, ]*</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr"/>
       <c r="AI6" s="2" t="inlineStr">
         <is>
-          <t>[ATGC, ]*</t>
+          <t>[ATGC]*</t>
         </is>
       </c>
       <c r="AJ6" s="2" t="inlineStr"/>
       <c r="AK6" s="2" t="inlineStr">
         <is>
-          <t>[ATGC]*</t>
-        </is>
-      </c>
-      <c r="AL6" s="2" t="inlineStr"/>
+          <t>[0-9]*</t>
+        </is>
+      </c>
+      <c r="AL6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
+          <t>[+-]?([0-9]*[.])?[0-9]+</t>
+        </is>
+      </c>
+      <c r="AN6" s="2" t="inlineStr">
+        <is>
+          <t>[+-]?([0-9]*[.])?[0-9]+</t>
+        </is>
+      </c>
+      <c r="AO6" s="2" t="inlineStr"/>
+      <c r="AP6" s="2" t="inlineStr">
+        <is>
           <t>[0-9]*</t>
         </is>
       </c>
-      <c r="AN6" s="2" t="inlineStr">
+      <c r="AQ6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{5,}</t>
+        </is>
+      </c>
+      <c r="AR6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
+      <c r="AS6" s="2" t="inlineStr"/>
+      <c r="AT6" s="2" t="inlineStr">
         <is>
           <t>[0-9]*</t>
         </is>
       </c>
-      <c r="AO6" s="2" t="inlineStr">
-        <is>
-          <t>[+-]?([0-9]*[.])?[0-9]+</t>
-        </is>
-      </c>
-      <c r="AP6" s="2" t="inlineStr">
-        <is>
-          <t>[+-]?([0-9]*[.])?[0-9]+</t>
-        </is>
-      </c>
-      <c r="AQ6" s="2" t="inlineStr"/>
-      <c r="AR6" s="2" t="inlineStr">
+      <c r="AU6" s="2" t="inlineStr">
         <is>
           <t>[0-9]*</t>
         </is>
       </c>
-      <c r="AS6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{5,}</t>
-        </is>
-      </c>
-      <c r="AT6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
-      <c r="AU6" s="2" t="inlineStr"/>
-      <c r="AV6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
-      <c r="AW6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
+      <c r="AV6" s="2" t="inlineStr"/>
+      <c r="AW6" s="2" t="inlineStr"/>
       <c r="AX6" s="2" t="inlineStr"/>
       <c r="AY6" s="2" t="inlineStr"/>
       <c r="AZ6" s="2" t="inlineStr"/>
@@ -2612,8 +2580,6 @@
       <c r="BI6" s="2" t="inlineStr"/>
       <c r="BJ6" s="2" t="inlineStr"/>
       <c r="BK6" s="2" t="inlineStr"/>
-      <c r="BL6" s="2" t="inlineStr"/>
-      <c r="BM6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-3181212514889753423" xfId="1" hidden="0"/>
-    <cellStyle name="-8304832868839875921" xfId="2" hidden="0"/>
+    <cellStyle name="-2002162457393507372" xfId="1" hidden="0"/>
+    <cellStyle name="-4492153878433722935" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -588,112 +588,112 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>IMAGING_DATASET_ID</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_LOT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>BARCODE_WELL_I5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>LIB_PREP_KIT</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>TISSUE_PREP_METHOD</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>LIB_PREP_KIT</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>IMAGING_DATASET_ID</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_LOT</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -822,112 +822,112 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>IMAGING_DATASET_ID</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_LOT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>BARCODE_WELL_I5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>LIB_PREP_KIT</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>TISSUE_PREP_METHOD</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>LIB_PREP_KIT</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>IMAGING_DATASET_ID</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_LOT</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -999,112 +999,112 @@
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
+          <t>Date of death (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Imaging dataset for Spatial Transcriptomics</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Method used to fragment DNA</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>LOT number of the antibody</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>How was the mouse/animal killed?</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
           <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Experimentally determined average fragment length (basepairs) if available</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody name, manufacturer etc.</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Description of barcode used</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
         <is>
           <t>Well position of the barcode</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Identifier for the strain used. Use EFO, if possible</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody target protein</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
         <is>
           <t>Brief description to method of tissue preparation</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>Any additional notes, comments for the submission</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
         <is>
           <t>Birthday of individual (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Method used to fragment DNA</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Identifier for the strain used. Use EFO, if possible</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>How was the mouse/animal killed?</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>Description of barcode used</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Date of death (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>Any additional notes, comments for the submission</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>Imaging dataset for Spatial Transcriptomics</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>LOT number of the antibody</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>Experimentally determined average fragment length (basepairs) if available</t>
-        </is>
-      </c>
-      <c r="AD2" s="2" t="inlineStr">
-        <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
-        </is>
-      </c>
-      <c r="AF2" s="2" t="inlineStr">
-        <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
-        </is>
-      </c>
-      <c r="AG2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody name, manufacturer etc.</t>
-        </is>
-      </c>
-      <c r="AH2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody target protein</t>
         </is>
       </c>
       <c r="AI2" s="2" t="inlineStr">
@@ -1172,97 +1172,97 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" s="2" t="n">
+        <v>43834</v>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>['DOIMG-00001']</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>['enzymatic sonicator']</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>A7, S503</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>wild type</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="W3" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>Mus musculus</t>
+        </is>
+      </c>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+        </is>
+      </c>
+      <c r="AA3" s="2" t="inlineStr">
+        <is>
+          <t>liver, skin, brain</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
         <is>
           <t>A7, N701, SI-GA-A6</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="AC3" s="2" t="inlineStr">
+        <is>
+          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
+        </is>
+      </c>
+      <c r="AD3" s="2" t="inlineStr">
+        <is>
+          <t>['scRNA_10x_v3', 'WGS_NEBNext_ULTRA_II', 'Agilent SureSelect Pre-capture', 'Agilent SureSelect XT Low input Mouse AllExon', 'Agilent SureSelect Post-capture', 'NEBNext RNA Low Input - E6420']</t>
+        </is>
+      </c>
+      <c r="AE3" s="2" t="inlineStr">
+        <is>
+          <t>HNF4A, CEBPA</t>
+        </is>
+      </c>
+      <c r="AF3" s="2" t="inlineStr">
         <is>
           <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
         </is>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="AG3" s="2" t="inlineStr"/>
+      <c r="AH3" s="2" t="n">
         <v>43921</v>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>['enzymatic sonicator']</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Mus musculus</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>43834</v>
-      </c>
-      <c r="W3" s="2" t="inlineStr"/>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>A7, S503</t>
-        </is>
-      </c>
-      <c r="Y3" s="2" t="inlineStr">
-        <is>
-          <t>['scRNA_10x_v3', 'WGS_NEBNext_ULTRA_II', 'Agilent SureSelect Pre-capture', 'Agilent SureSelect XT Low input Mouse AllExon', 'Agilent SureSelect Post-capture', 'NEBNext RNA Low Input - E6420']</t>
-        </is>
-      </c>
-      <c r="Z3" s="2" t="inlineStr">
-        <is>
-          <t>['DOIMG-00001']</t>
-        </is>
-      </c>
-      <c r="AA3" s="2" t="inlineStr"/>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
-        </is>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AD3" s="2" t="inlineStr">
-        <is>
-          <t>liver, skin, brain</t>
-        </is>
-      </c>
-      <c r="AE3" s="2" t="inlineStr">
-        <is>
-          <t>wild type</t>
-        </is>
-      </c>
-      <c r="AF3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AG3" s="2" t="inlineStr"/>
-      <c r="AH3" s="2" t="inlineStr">
-        <is>
-          <t>HNF4A, CEBPA</t>
-        </is>
       </c>
       <c r="AI3" s="2" t="n">
         <v>1234</v>
@@ -1391,32 +1391,32 @@
       </c>
       <c r="Y4" s="2" t="inlineStr">
         <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
+      <c r="Z4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
+      <c r="AC4" s="2" t="inlineStr">
+        <is>
+          <t>Odomlab</t>
+        </is>
+      </c>
+      <c r="AD4" s="2" t="inlineStr">
+        <is>
           <t>Odomlab, GUIDE</t>
-        </is>
-      </c>
-      <c r="Z4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
-      <c r="AA4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
-      <c r="AB4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
-      <c r="AD4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
         </is>
       </c>
       <c r="AE4" s="2" t="inlineStr">
@@ -1523,97 +1523,97 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="X5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="Y5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AA5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="AD5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AG5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="Y5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AG5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AH5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
         </is>
       </c>
       <c r="AI5" s="2" t="inlineStr">
@@ -1667,44 +1667,44 @@
           <t>[0-9]{1,2}[A-Z]</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
+      <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr">
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
         <is>
           <t>[\w-]{1,64}</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr"/>
-      <c r="X6" s="2" t="inlineStr"/>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
       <c r="AB6" s="2" t="inlineStr"/>
-      <c r="AC6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
+      <c r="AC6" s="2" t="inlineStr"/>
       <c r="AD6" s="2" t="inlineStr"/>
       <c r="AE6" s="2" t="inlineStr"/>
       <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr"/>
-      <c r="AH6" s="2" t="inlineStr"/>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="AI6" s="2" t="inlineStr">
         <is>
           <t>[0-9]*</t>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-2002162457393507372" xfId="1" hidden="0"/>
-    <cellStyle name="-4492153878433722935" xfId="2" hidden="0"/>
+    <cellStyle name="306505109779092096" xfId="1" hidden="0"/>
+    <cellStyle name="8412511059991164192" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -578,127 +578,127 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>LIB_PREP_KIT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ILSE_NO</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SINGLE_CELL_WELL_LABEL</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I5</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DATE_OF_DEATH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_BIRTH</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>DNA_FRAGMENTATION_METHOD</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_LOT</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>GENOTYPE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_LOT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I5</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>LIB_PREP_KIT</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
     </row>
@@ -812,127 +812,127 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>LIB_PREP_KIT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ILSE_NO</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SINGLE_CELL_WELL_LABEL</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I5</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DATE_OF_DEATH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_BIRTH</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>DNA_FRAGMENTATION_METHOD</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_LOT</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>GENOTYPE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_LOT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I5</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>LIB_PREP_KIT</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
     </row>
@@ -989,127 +989,127 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
+          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
           <t>ILSE number as provided by GPCF/ILSe</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>REQUIRED FOR SMARTSEQ2, combination of column and row</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Identifier for the strain used. Use EFO, if possible</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Brief description to method of tissue preparation</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Description of barcode used</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody target protein</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>Date of death (format YYYY-MM-DD)</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Number of cell,  if available</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>Any additional notes, comments for the submission</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>Birthday of individual (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody name, manufacturer etc.</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
         <is>
           <t>Imaging dataset for Spatial Transcriptomics</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="AE2" s="2" t="inlineStr">
         <is>
           <t>Method used to fragment DNA</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>LOT number of the antibody</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>How was the mouse/animal killed?</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
         <is>
           <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>LOT number of the antibody</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>How was the mouse/animal killed?</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="AI2" s="2" t="inlineStr">
         <is>
           <t>Experimentally determined average fragment length (basepairs) if available</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody name, manufacturer etc.</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>Description of barcode used</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>Identifier for the strain used. Use EFO, if possible</t>
-        </is>
-      </c>
-      <c r="AD2" s="2" t="inlineStr">
-        <is>
-          <t>If using a new Kit, check first with ODCF because they need to register it to their database. Use their descriptor.</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody target protein</t>
-        </is>
-      </c>
-      <c r="AF2" s="2" t="inlineStr">
-        <is>
-          <t>Brief description to method of tissue preparation</t>
-        </is>
-      </c>
-      <c r="AG2" s="2" t="inlineStr">
-        <is>
-          <t>Any additional notes, comments for the submission</t>
-        </is>
-      </c>
-      <c r="AH2" s="2" t="inlineStr">
-        <is>
-          <t>Birthday of individual (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="AI2" s="2" t="inlineStr">
-        <is>
-          <t>Number of cell,  if available</t>
         </is>
       </c>
     </row>
@@ -1164,70 +1164,74 @@
           <t>['healthy', 'tumor']</t>
         </is>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>['scRNA_10x_v3', 'WGS_NEBNext_ULTRA_II', 'Agilent SureSelect Pre-capture', 'Agilent SureSelect XT Low input Mouse AllExon', 'Agilent SureSelect Post-capture', 'NEBNext RNA Low Input - E6420']</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
         <v>12345</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>A7, N701, SI-GA-A6</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>A7, S503</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Mus musculus</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>HNF4A, CEBPA</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n">
         <v>43834</v>
       </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>['DOIMG-00001']</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="W3" s="2" t="inlineStr">
         <is>
           <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>['enzymatic sonicator']</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>A7, S503</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>wild type</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
-        </is>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>Mus musculus</t>
-        </is>
+      <c r="X3" s="2" t="n">
+        <v>1234</v>
       </c>
       <c r="Y3" s="2" t="inlineStr"/>
       <c r="Z3" s="2" t="inlineStr">
         <is>
-          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
         </is>
       </c>
       <c r="AA3" s="2" t="inlineStr">
@@ -1235,37 +1239,33 @@
           <t>liver, skin, brain</t>
         </is>
       </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>A7, N701, SI-GA-A6</t>
-        </is>
-      </c>
-      <c r="AC3" s="2" t="inlineStr">
-        <is>
-          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
-        </is>
-      </c>
+      <c r="AB3" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="AC3" s="2" t="inlineStr"/>
       <c r="AD3" s="2" t="inlineStr">
         <is>
-          <t>['scRNA_10x_v3', 'WGS_NEBNext_ULTRA_II', 'Agilent SureSelect Pre-capture', 'Agilent SureSelect XT Low input Mouse AllExon', 'Agilent SureSelect Post-capture', 'NEBNext RNA Low Input - E6420']</t>
+          <t>['DOIMG-00001']</t>
         </is>
       </c>
       <c r="AE3" s="2" t="inlineStr">
         <is>
-          <t>HNF4A, CEBPA</t>
-        </is>
-      </c>
-      <c r="AF3" s="2" t="inlineStr">
-        <is>
-          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
-        </is>
-      </c>
-      <c r="AG3" s="2" t="inlineStr"/>
-      <c r="AH3" s="2" t="n">
-        <v>43921</v>
+          <t>['enzymatic sonicator']</t>
+        </is>
+      </c>
+      <c r="AF3" s="2" t="inlineStr"/>
+      <c r="AG3" s="2" t="inlineStr">
+        <is>
+          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
+        </is>
+      </c>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>wild type</t>
+        </is>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>1234</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
@@ -1326,14 +1326,14 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>GUIDE, Odomlab</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>GUIDE</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
           <t>Odomlab</t>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="AD4" s="2" t="inlineStr">
         <is>
-          <t>Odomlab, GUIDE</t>
+          <t>Odomlab</t>
         </is>
       </c>
       <c r="AE4" s="2" t="inlineStr">
@@ -1498,117 +1498,117 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="V5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="Y5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AA5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AG5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="Y5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AG5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
@@ -1657,54 +1657,54 @@
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>[0-9]{5,}</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>[0-9]{1,2}[A-Z]</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>[\w-]{1,64}</t>
+        </is>
+      </c>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr"/>
       <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr">
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr">
         <is>
           <t>[0-9]*</t>
-        </is>
-      </c>
-      <c r="X6" s="2" t="inlineStr">
-        <is>
-          <t>[\w-]{1,64}</t>
         </is>
       </c>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
-      <c r="AB6" s="2" t="inlineStr"/>
+      <c r="AB6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="AC6" s="2" t="inlineStr"/>
       <c r="AD6" s="2" t="inlineStr"/>
       <c r="AE6" s="2" t="inlineStr"/>
       <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr"/>
-      <c r="AH6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
+      <c r="AH6" s="2" t="inlineStr"/>
       <c r="AI6" s="2" t="inlineStr">
         <is>
           <t>[0-9]*</t>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="306505109779092096" xfId="1" hidden="0"/>
-    <cellStyle name="8412511059991164192" xfId="2" hidden="0"/>
+    <cellStyle name="-7306501240914249623" xfId="1" hidden="0"/>
+    <cellStyle name="6513355154185750121" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,6 @@
     <col width="20" customWidth="1" min="32" max="32"/>
     <col width="20" customWidth="1" min="33" max="33"/>
     <col width="20" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -593,112 +592,107 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>STRAIN</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_BIRTH</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>BARCODE_WELL_I5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>BARCODE_WELL_I7</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>IMAGING_DATASET_ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>ANTIBODY_TARGET</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>NOTES</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>IMAGING_DATASET_ID</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_LOT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
         </is>
       </c>
     </row>
@@ -713,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -756,7 +750,6 @@
     <col width="20" customWidth="1" min="32" max="32"/>
     <col width="20" customWidth="1" min="33" max="33"/>
     <col width="20" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -827,112 +820,107 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>STRAIN</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_BIRTH</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>BARCODE_WELL_I5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>BARCODE_WELL_I7</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>IMAGING_DATASET_ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>ANTIBODY_TARGET</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>NOTES</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>IMAGING_DATASET_ID</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_LOT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
         </is>
       </c>
     </row>
@@ -1004,112 +992,107 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
+          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
           <t>Identifier for the strain used. Use EFO, if possible</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>How was the mouse/animal killed?</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>Birthday of individual (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>Date of death (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Brief description to method of tissue preparation</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Number of cell,  if available</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Description of barcode used</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
         <is>
           <t>Well position of the barcode</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="AB2" s="2" t="inlineStr">
         <is>
           <t>Well position of the barcode</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Brief description to method of tissue preparation</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Description of barcode used</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Method used to fragment DNA</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>Experimentally determined average fragment length (basepairs) if available</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>Imaging dataset for Spatial Transcriptomics</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody name, manufacturer etc.</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
         <is>
           <t>Antibody target protein</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Date of death (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Number of cell,  if available</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
+      <c r="AH2" s="2" t="inlineStr">
         <is>
           <t>Any additional notes, comments for the submission</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Birthday of individual (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody name, manufacturer etc.</t>
-        </is>
-      </c>
-      <c r="AD2" s="2" t="inlineStr">
-        <is>
-          <t>Imaging dataset for Spatial Transcriptomics</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>Method used to fragment DNA</t>
-        </is>
-      </c>
-      <c r="AF2" s="2" t="inlineStr">
-        <is>
-          <t>LOT number of the antibody</t>
-        </is>
-      </c>
-      <c r="AG2" s="2" t="inlineStr">
-        <is>
-          <t>How was the mouse/animal killed?</t>
-        </is>
-      </c>
-      <c r="AH2" s="2" t="inlineStr">
-        <is>
-          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
-        </is>
-      </c>
-      <c r="AI2" s="2" t="inlineStr">
-        <is>
-          <t>Experimentally determined average fragment length (basepairs) if available</t>
         </is>
       </c>
     </row>
@@ -1179,94 +1162,93 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
+          <t>Mus musculus</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
           <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>A7, N701, SI-GA-A6</t>
-        </is>
-      </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>A7, S503</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>liver, skin, brain</t>
         </is>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
+          <t>wild type</t>
         </is>
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>HNF4A, CEBPA</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>43921</v>
       </c>
       <c r="V3" s="2" t="n">
         <v>43834</v>
       </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
-          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
+          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
         </is>
       </c>
       <c r="X3" s="2" t="n">
         <v>1234</v>
       </c>
-      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="inlineStr">
+        <is>
+          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
+        </is>
+      </c>
       <c r="Z3" s="2" t="inlineStr">
         <is>
-          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
+          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
         </is>
       </c>
       <c r="AA3" s="2" t="inlineStr">
         <is>
-          <t>liver, skin, brain</t>
-        </is>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>43921</v>
-      </c>
-      <c r="AC3" s="2" t="inlineStr"/>
-      <c r="AD3" s="2" t="inlineStr">
+          <t>A7, N701, SI-GA-A6</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>A7, S503</t>
+        </is>
+      </c>
+      <c r="AC3" s="2" t="inlineStr">
+        <is>
+          <t>['enzymatic sonicator']</t>
+        </is>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE3" s="2" t="inlineStr">
         <is>
           <t>['DOIMG-00001']</t>
-        </is>
-      </c>
-      <c r="AE3" s="2" t="inlineStr">
-        <is>
-          <t>['enzymatic sonicator']</t>
         </is>
       </c>
       <c r="AF3" s="2" t="inlineStr"/>
       <c r="AG3" s="2" t="inlineStr">
         <is>
-          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
-        </is>
-      </c>
-      <c r="AH3" s="2" t="inlineStr">
-        <is>
-          <t>wild type</t>
-        </is>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>500</v>
-      </c>
+          <t>HNF4A, CEBPA</t>
+        </is>
+      </c>
+      <c r="AH3" s="2" t="inlineStr"/>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1439,11 +1421,6 @@
           <t>Odomlab</t>
         </is>
       </c>
-      <c r="AI4" s="2" t="inlineStr">
-        <is>
-          <t>Odomlab</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1518,105 +1495,100 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="X5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="Y5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="Z5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="AA5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="Y5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="inlineStr">
+      <c r="AG5" s="2" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AG5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
       <c r="AH5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AI5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
@@ -1668,18 +1640,22 @@
           <t>[0-9]{1,2}[A-Z]</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>[\w-]{1,64}</t>
+        </is>
+      </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>[\w-]{1,64}</t>
-        </is>
-      </c>
+      <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
           <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
@@ -1694,22 +1670,17 @@
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
-      <c r="AB6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
+      <c r="AB6" s="2" t="inlineStr"/>
       <c r="AC6" s="2" t="inlineStr"/>
-      <c r="AD6" s="2" t="inlineStr"/>
+      <c r="AD6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
       <c r="AE6" s="2" t="inlineStr"/>
       <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr"/>
       <c r="AH6" s="2" t="inlineStr"/>
-      <c r="AI6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7306501240914249623" xfId="1" hidden="0"/>
-    <cellStyle name="6513355154185750121" xfId="2" hidden="0"/>
+    <cellStyle name="3894514756400538817" xfId="1" hidden="0"/>
+    <cellStyle name="-8348140008095211797" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -592,107 +592,107 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>DATE_OF_BIRTH</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>IMAGING_DATASET_ID</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I5</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I5</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>IMAGING_DATASET_ID</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
         </is>
       </c>
     </row>
@@ -820,107 +820,107 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>DATE_OF_BIRTH</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>IMAGING_DATASET_ID</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I5</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>SPECIES</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I5</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>IMAGING_DATASET_ID</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
         </is>
       </c>
     </row>
@@ -992,107 +992,107 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
+          <t>Birthday of individual (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Number of cell,  if available</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Imaging dataset for Spatial Transcriptomics</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Any additional notes, comments for the submission</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Experimentally determined average fragment length (basepairs) if available</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Method used to fragment DNA</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody target protein</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Identifier for the strain used. Use EFO, if possible</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>How was the mouse/animal killed?</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Description of barcode used</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Date of death (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>Brief description to method of tissue preparation</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody name, manufacturer etc.</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
           <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Identifier for the strain used. Use EFO, if possible</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>How was the mouse/animal killed?</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>Birthday of individual (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Date of death (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>Brief description to method of tissue preparation</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Number of cell,  if available</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>Description of barcode used</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>Method used to fragment DNA</t>
-        </is>
-      </c>
-      <c r="AD2" s="2" t="inlineStr">
-        <is>
-          <t>Experimentally determined average fragment length (basepairs) if available</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>Imaging dataset for Spatial Transcriptomics</t>
-        </is>
-      </c>
-      <c r="AF2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody name, manufacturer etc.</t>
-        </is>
-      </c>
-      <c r="AG2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody target protein</t>
-        </is>
-      </c>
-      <c r="AH2" s="2" t="inlineStr">
-        <is>
-          <t>Any additional notes, comments for the submission</t>
         </is>
       </c>
     </row>
@@ -1160,95 +1160,95 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>['DOIMG-00001']</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>['enzymatic sonicator']</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>HNF4A, CEBPA</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>A7, S503</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
+        </is>
+      </c>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>liver, skin, brain</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
+        </is>
+      </c>
+      <c r="Y3" s="2" t="inlineStr">
+        <is>
+          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
+        </is>
+      </c>
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA3" s="2" t="inlineStr">
+        <is>
+          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
+        </is>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>43834</v>
+      </c>
+      <c r="AD3" s="2" t="inlineStr">
+        <is>
+          <t>wild type</t>
+        </is>
+      </c>
+      <c r="AE3" s="2" t="inlineStr">
+        <is>
+          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
+        </is>
+      </c>
+      <c r="AF3" s="2" t="inlineStr">
+        <is>
+          <t>A7, N701, SI-GA-A6</t>
+        </is>
+      </c>
+      <c r="AG3" s="2" t="inlineStr"/>
+      <c r="AH3" s="2" t="inlineStr">
         <is>
           <t>Mus musculus</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>liver, skin, brain</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>wild type</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>43921</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>43834</v>
-      </c>
-      <c r="W3" s="2" t="inlineStr">
-        <is>
-          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
-        </is>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="Y3" s="2" t="inlineStr">
-        <is>
-          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
-        </is>
-      </c>
-      <c r="Z3" s="2" t="inlineStr">
-        <is>
-          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
-        </is>
-      </c>
-      <c r="AA3" s="2" t="inlineStr">
-        <is>
-          <t>A7, N701, SI-GA-A6</t>
-        </is>
-      </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>A7, S503</t>
-        </is>
-      </c>
-      <c r="AC3" s="2" t="inlineStr">
-        <is>
-          <t>['enzymatic sonicator']</t>
-        </is>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE3" s="2" t="inlineStr">
-        <is>
-          <t>['DOIMG-00001']</t>
-        </is>
-      </c>
-      <c r="AF3" s="2" t="inlineStr"/>
-      <c r="AG3" s="2" t="inlineStr">
-        <is>
-          <t>HNF4A, CEBPA</t>
-        </is>
-      </c>
-      <c r="AH3" s="2" t="inlineStr"/>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1495,102 +1495,102 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="X5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="Y5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="Z5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="AA5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="AD5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AG5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
         <is>
           <t>sample</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="Y5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AG5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AH5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
         </is>
       </c>
     </row>
@@ -1642,45 +1642,45 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>[\w-]{1,64}</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr"/>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
       <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
       <c r="W6" s="2" t="inlineStr"/>
-      <c r="X6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
+      <c r="X6" s="2" t="inlineStr"/>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
       <c r="AB6" s="2" t="inlineStr"/>
-      <c r="AC6" s="2" t="inlineStr"/>
-      <c r="AD6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
+      <c r="AC6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
+      <c r="AD6" s="2" t="inlineStr"/>
       <c r="AE6" s="2" t="inlineStr"/>
       <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr"/>
-      <c r="AH6" s="2" t="inlineStr"/>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>[\w-]{1,64}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="3894514756400538817" xfId="1" hidden="0"/>
-    <cellStyle name="-8348140008095211797" xfId="2" hidden="0"/>
+    <cellStyle name="-974054379579180369" xfId="1" hidden="0"/>
+    <cellStyle name="7230375233357039471" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -592,107 +592,107 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>DATE_OF_BIRTH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I5</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>NOTES</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I5</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
         </is>
       </c>
     </row>
@@ -820,107 +820,107 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>SPECIES</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>STRAIN</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GENOTYPE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TREATMENT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>WAY_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>DATE_OF_BIRTH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_OF_DEATH</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TISSUE_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CELL_INPUT[TOTAL_ALIVE CELLS]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NA_PREP_METHOD</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODETYPE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I5</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>BARCODE_WELL_I7</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DNA_FRAGMENTATION_METHOD</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_FRAGMENT_SIZE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>IMAGING_DATASET_ID</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ANTIBODY_TARGET</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>NOTES</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_FRAGMENT_SIZE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>DNA_FRAGMENTATION_METHOD</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY_TARGET</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I7</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>TREATMENT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>STRAIN</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>WAY_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODETYPE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>NA_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_DEATH</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>GENOTYPE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>TISSUE_PREP_METHOD</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>BARCODE_WELL_I5</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>ANTIBODY</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
         </is>
       </c>
     </row>
@@ -992,107 +992,107 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
+          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Identifier for the strain used. Use EFO, if possible</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>How was the mouse/animal killed?</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
           <t>Birthday of individual (format YYYY-MM-DD)</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>Date of death (format YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Brief description to method of tissue preparation</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
         <is>
           <t>Number of cell,  if available</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Description of barcode used</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>Well position of the barcode</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Method used to fragment DNA</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>Experimentally determined average fragment length (basepairs) if available</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
         <is>
           <t>Imaging dataset for Spatial Transcriptomics</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody name, manufacturer etc.</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>Antibody target protein</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
         <is>
           <t>Any additional notes, comments for the submission</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Experimentally determined average fragment length (basepairs) if available</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Method used to fragment DNA</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody target protein</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Any treatment / pertubation applied to the individual/ cell-line.</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>Descriptor of the tissue, if not given it's tried to parse from SAMPLE_TYPE.</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Identifier for the strain used. Use EFO, if possible</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>How was the mouse/animal killed?</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>ID for the individual (MOVI Number, Researcher's working ID)</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>Description of barcode used</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Method (probably a kit) used to extract nucleic acid (NA)</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>Date of death (format YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="AD2" s="2" t="inlineStr">
-        <is>
-          <t>Genotype according to EFO. Typically wildtype if not GMO.</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>Brief description to method of tissue preparation</t>
-        </is>
-      </c>
-      <c r="AF2" s="2" t="inlineStr">
-        <is>
-          <t>Well position of the barcode</t>
-        </is>
-      </c>
-      <c r="AG2" s="2" t="inlineStr">
-        <is>
-          <t>Antibody name, manufacturer etc.</t>
-        </is>
-      </c>
-      <c r="AH2" s="2" t="inlineStr">
-        <is>
-          <t>Scientific name of a species. Note that CAST/Ej is a strain of Mus musculus.</t>
         </is>
       </c>
     </row>
@@ -1160,95 +1160,95 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Mus musculus</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>liver, skin, brain</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>wild type</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="V3" s="2" t="n">
+        <v>43834</v>
+      </c>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="n">
         <v>1234</v>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="Y3" s="2" t="inlineStr">
+        <is>
+          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
+        </is>
+      </c>
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
+        </is>
+      </c>
+      <c r="AA3" s="2" t="inlineStr">
+        <is>
+          <t>A7, N701, SI-GA-A6</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>A7, S503</t>
+        </is>
+      </c>
+      <c r="AC3" s="2" t="inlineStr">
+        <is>
+          <t>['enzymatic sonicator']</t>
+        </is>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE3" s="2" t="inlineStr">
         <is>
           <t>['DOIMG-00001']</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>['enzymatic sonicator']</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="AF3" s="2" t="inlineStr"/>
+      <c r="AG3" s="2" t="inlineStr">
         <is>
           <t>HNF4A, CEBPA</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>A7, S503</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>['acetone 25w_DMBA/TPA 10w_DMBA/TPA DMBA/TPA_or_TPA TPA UV']</t>
-        </is>
-      </c>
-      <c r="W3" s="2" t="inlineStr">
-        <is>
-          <t>liver, skin, brain</t>
-        </is>
-      </c>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>['CAST/Ej', 'C57BL/6', '[CAST/EjxC57BL/6]F1']</t>
-        </is>
-      </c>
-      <c r="Y3" s="2" t="inlineStr">
-        <is>
-          <t>['neck_fracture CO2_neck_fracture isofloran_neck_fracture']</t>
-        </is>
-      </c>
-      <c r="Z3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AA3" s="2" t="inlineStr">
-        <is>
-          <t>['SureSelect 16 Rxn 10X Chromium v3 NEB 96 oligos SureSelect 96 rxn']</t>
-        </is>
-      </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>['Modified Qiagen DNeasy blood&amp;tissue Qiagen Dneasy blood&amp;tissue Qiagen RNeasy micro']</t>
-        </is>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>43834</v>
-      </c>
-      <c r="AD3" s="2" t="inlineStr">
-        <is>
-          <t>wild type</t>
-        </is>
-      </c>
-      <c r="AE3" s="2" t="inlineStr">
-        <is>
-          <t>['liver_ex Single cell MB RNA/DNATissueLyzerII Single cell C. Ernst 1. Enzymes 2. Trypsin 1. Trypsin 2. Enzymes skinbiopsy']</t>
-        </is>
-      </c>
-      <c r="AF3" s="2" t="inlineStr">
-        <is>
-          <t>A7, N701, SI-GA-A6</t>
-        </is>
-      </c>
-      <c r="AG3" s="2" t="inlineStr"/>
-      <c r="AH3" s="2" t="inlineStr">
-        <is>
-          <t>Mus musculus</t>
-        </is>
-      </c>
+      <c r="AH3" s="2" t="inlineStr"/>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1495,102 +1495,102 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="X5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="Y5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="Z5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="AA5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="AG5" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
         <is>
           <t>experiment</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="Y5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AG5" s="2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AH5" s="2" t="inlineStr">
-        <is>
-          <t>sample</t>
         </is>
       </c>
     </row>
@@ -1642,45 +1642,45 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
+          <t>[\w-]{1,64}</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]*</t>
-        </is>
-      </c>
+      <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
+        </is>
+      </c>
       <c r="W6" s="2" t="inlineStr"/>
-      <c r="X6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr"/>
       <c r="AB6" s="2" t="inlineStr"/>
-      <c r="AC6" s="2" t="inlineStr">
-        <is>
-          <t>[0-9]{4}-[0-9]{2}-[0-9]{2}</t>
-        </is>
-      </c>
-      <c r="AD6" s="2" t="inlineStr"/>
+      <c r="AC6" s="2" t="inlineStr"/>
+      <c r="AD6" s="2" t="inlineStr">
+        <is>
+          <t>[0-9]*</t>
+        </is>
+      </c>
       <c r="AE6" s="2" t="inlineStr"/>
       <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr"/>
-      <c r="AH6" s="2" t="inlineStr">
-        <is>
-          <t>[\w-]{1,64}</t>
-        </is>
-      </c>
+      <c r="AH6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-974054379579180369" xfId="1" hidden="0"/>
-    <cellStyle name="7230375233357039471" xfId="2" hidden="0"/>
+    <cellStyle name="7635079806406171085" xfId="1" hidden="0"/>
+    <cellStyle name="1108821744843284211" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -967,7 +967,7 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Sample Type used by OTP, describing samples *across* individual, please follow guidelines</t>
+          <t>Sample Type used by OTP, describing samples *across* individual. (lowercase and dash(-) only, end with digit)</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -1627,7 +1627,11 @@
           <t>[\w-]{1,32}</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>[a-z0-9-]*</t>
+        </is>
+      </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr">

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="7635079806406171085" xfId="1" hidden="0"/>
-    <cellStyle name="1108821744843284211" xfId="2" hidden="0"/>
+    <cellStyle name="7974266402926894508" xfId="1" hidden="0"/>
+    <cellStyle name="2685469106096664587" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="7974266402926894508" xfId="1" hidden="0"/>
-    <cellStyle name="2685469106096664587" xfId="2" hidden="0"/>
+    <cellStyle name="2756097199724357391" xfId="1" hidden="0"/>
+    <cellStyle name="-731146629961624635" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="2756097199724357391" xfId="1" hidden="0"/>
-    <cellStyle name="-731146629961624635" xfId="2" hidden="0"/>
+    <cellStyle name="2580808146492040243" xfId="1" hidden="0"/>
+    <cellStyle name="7079948450441415062" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -947,7 +947,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Sequence of the I7 barcode (for 10x-singcell this can be a comma-separated list of 4 indeces)</t>
+          <t>Sequence of the I7 barcode (for 10x-Single Cell, you need enter four rows to supply the barcodes and add a "_a,_b,_c, _d" suffix to the Sample Type)</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>TTACCGAC, GCGAGTAA</t>
+          <t>TTACCGAC</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>[ATGC, ]*</t>
+          <t>[ATGC]*</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="2580808146492040243" xfId="1" hidden="0"/>
-    <cellStyle name="7079948450441415062" xfId="2" hidden="0"/>
+    <cellStyle name="-8636662239298810035" xfId="1" hidden="0"/>
+    <cellStyle name="-3644374285188671303" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/sheets/sequencing_spreadsheet_template.by_provider.xlsx
+++ b/sheets/sequencing_spreadsheet_template.by_provider.xlsx
@@ -116,8 +116,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-8636662239298810035" xfId="1" hidden="0"/>
-    <cellStyle name="-3644374285188671303" xfId="2" hidden="0"/>
+    <cellStyle name="4776989127365596862" xfId="1" hidden="0"/>
+    <cellStyle name="-4981025973110287276" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
